--- a/Data1.xlsx
+++ b/Data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sander/Documents/GitHub/pythonProject1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8FD1D9-9EFC-E640-B594-08B229980F21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F41B848-D29A-2A4C-BDD1-D8C2B06D4FDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18520" windowHeight="16320" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18520" windowHeight="16280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="Numerical Variables" sheetId="6" r:id="rId6"/>
     <sheet name="Balance" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="25">
   <si>
     <t>distance</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Distance</t>
+  </si>
+  <si>
+    <t>Sea-level pressure</t>
+  </si>
+  <si>
+    <t>Cloudcover</t>
   </si>
 </sst>
 </file>
@@ -1288,19 +1294,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:D90"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
     <col min="2" max="4" width="16" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1313,8 +1321,20 @@
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1327,8 +1347,20 @@
       <c r="D2" s="11">
         <v>32036</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="11">
+        <v>178714</v>
+      </c>
+      <c r="H2" s="11">
+        <v>9732</v>
+      </c>
+      <c r="I2" s="11">
+        <v>168982</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1341,8 +1373,20 @@
       <c r="D3" s="9">
         <v>-0.16914303842944439</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9">
+        <v>903.27961435589827</v>
+      </c>
+      <c r="H3" s="9">
+        <v>905.80045211672837</v>
+      </c>
+      <c r="I3" s="9">
+        <v>-2.5208377608300911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1355,8 +1399,20 @@
       <c r="D4" s="9">
         <v>-4.7716211919094607E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9">
+        <v>614.3477337840344</v>
+      </c>
+      <c r="H4" s="9">
+        <v>570.3599878328489</v>
+      </c>
+      <c r="I4" s="9">
+        <v>43.987745951185502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1369,8 +1425,20 @@
       <c r="D5" s="9">
         <v>-5.8679185925513633E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9">
+        <v>67</v>
+      </c>
+      <c r="H5" s="9">
+        <v>67</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>0.25</v>
       </c>
@@ -1383,8 +1451,20 @@
       <c r="D6" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G6" s="9">
+        <v>431</v>
+      </c>
+      <c r="H6" s="9">
+        <v>495</v>
+      </c>
+      <c r="I6" s="9">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>0.5</v>
       </c>
@@ -1397,8 +1477,20 @@
       <c r="D7" s="9">
         <v>-0.18042330173952301</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="9">
+        <v>775</v>
+      </c>
+      <c r="H7" s="9">
+        <v>821</v>
+      </c>
+      <c r="I7" s="9">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>0.75</v>
       </c>
@@ -1411,8 +1503,20 @@
       <c r="D8" s="9">
         <v>-0.41849847349132929</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F8" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1162</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1120</v>
+      </c>
+      <c r="I8" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -1425,8 +1529,20 @@
       <c r="D9" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="10">
+        <v>4983</v>
+      </c>
+      <c r="H9" s="10">
+        <v>4983</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1439,8 +1555,20 @@
       <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1453,8 +1581,20 @@
       <c r="D11" s="11">
         <v>32036</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="11">
+        <v>178714</v>
+      </c>
+      <c r="H11" s="11">
+        <v>9732</v>
+      </c>
+      <c r="I11" s="11">
+        <v>168982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1467,8 +1607,20 @@
       <c r="D12" s="9">
         <v>-0.2314200299372112</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9">
+        <v>22.194278567991319</v>
+      </c>
+      <c r="H12" s="9">
+        <v>24.727507192766129</v>
+      </c>
+      <c r="I12" s="9">
+        <v>-2.5332286247748108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1481,8 +1633,20 @@
       <c r="D13" s="9">
         <v>-9.7059245075535261E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="9">
+        <v>8.2284733512418473</v>
+      </c>
+      <c r="H13" s="9">
+        <v>9.8681025419109307</v>
+      </c>
+      <c r="I13" s="9">
+        <v>-1.639629190669083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -1495,8 +1659,20 @@
       <c r="D14" s="9">
         <v>-6.2444222685078973E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="H14" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>0.25</v>
       </c>
@@ -1509,8 +1685,20 @@
       <c r="D15" s="9">
         <v>-1.1436360906927101E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F15" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="9">
+        <v>16.2</v>
+      </c>
+      <c r="H15" s="9">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I15" s="9">
+        <v>-1.9000000000000019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>0.5</v>
       </c>
@@ -1523,8 +1711,20 @@
       <c r="D16" s="9">
         <v>-0.20330951788175711</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="9">
+        <v>21.1</v>
+      </c>
+      <c r="H16" s="9">
+        <v>23.4</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-2.2999999999999972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>0.75</v>
       </c>
@@ -1537,8 +1737,20 @@
       <c r="D17" s="9">
         <v>-0.55879633804713125</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F17" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="9">
+        <v>27.3</v>
+      </c>
+      <c r="H17" s="9">
+        <v>29.8</v>
+      </c>
+      <c r="I17" s="9">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
@@ -1551,8 +1763,20 @@
       <c r="D18" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="10">
+        <v>60.8</v>
+      </c>
+      <c r="H18" s="10">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="I18" s="10">
+        <v>-8.7999999999999972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -1565,8 +1789,20 @@
       <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
@@ -1579,8 +1815,20 @@
       <c r="D20" s="11">
         <v>32036</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="11">
+        <v>178714</v>
+      </c>
+      <c r="H20" s="11">
+        <v>9732</v>
+      </c>
+      <c r="I20" s="11">
+        <v>168982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -1593,8 +1841,20 @@
       <c r="D21" s="9">
         <v>-12.69309646730221</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="9">
+        <v>15.38421388363531</v>
+      </c>
+      <c r="H21" s="9">
+        <v>14.69085491163173</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.69335897200357799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>11</v>
       </c>
@@ -1607,8 +1867,20 @@
       <c r="D22" s="9">
         <v>145.71276201828661</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1.447057416986083</v>
+      </c>
+      <c r="H22" s="9">
+        <v>2.2808516062315589</v>
+      </c>
+      <c r="I22" s="9">
+        <v>-0.83379418924547632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>12</v>
       </c>
@@ -1621,8 +1893,20 @@
       <c r="D23" s="9">
         <v>-83</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="H23" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>0.25</v>
       </c>
@@ -1635,8 +1919,20 @@
       <c r="D24" s="9">
         <v>-167</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F24" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G24" s="9">
+        <v>15.6</v>
+      </c>
+      <c r="H24" s="9">
+        <v>14.6</v>
+      </c>
+      <c r="I24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>0.5</v>
       </c>
@@ -1649,8 +1945,20 @@
       <c r="D25" s="9">
         <v>-97</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F25" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="9">
+        <v>16</v>
+      </c>
+      <c r="H25" s="9">
+        <v>15.9</v>
+      </c>
+      <c r="I25" s="9">
+        <v>9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>0.75</v>
       </c>
@@ -1663,8 +1971,20 @@
       <c r="D26" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F26" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G26" s="9">
+        <v>16</v>
+      </c>
+      <c r="H26" s="9">
+        <v>16</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>13</v>
       </c>
@@ -1677,8 +1997,20 @@
       <c r="D27" s="10">
         <v>111</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="10">
+        <v>16</v>
+      </c>
+      <c r="H27" s="10">
+        <v>16</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
@@ -1691,8 +2023,20 @@
       <c r="D28" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>9</v>
       </c>
@@ -1705,8 +2049,20 @@
       <c r="D29" s="11">
         <v>32036</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="11">
+        <v>178714</v>
+      </c>
+      <c r="H29" s="11">
+        <v>9732</v>
+      </c>
+      <c r="I29" s="11">
+        <v>168982</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>10</v>
       </c>
@@ -1719,8 +2075,20 @@
       <c r="D30" s="9">
         <v>2.782929664491554</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="9">
+        <v>17.427875264388909</v>
+      </c>
+      <c r="H30" s="9">
+        <v>15.01645088368269</v>
+      </c>
+      <c r="I30" s="9">
+        <v>2.4114243807062188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>11</v>
       </c>
@@ -1733,8 +2101,20 @@
       <c r="D31" s="9">
         <v>1.917796618277734E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="9">
+        <v>9.9067349527367821</v>
+      </c>
+      <c r="H31" s="9">
+        <v>12.72826437613255</v>
+      </c>
+      <c r="I31" s="9">
+        <v>-2.8215294233957682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>12</v>
       </c>
@@ -1747,8 +2127,20 @@
       <c r="D32" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="9">
+        <v>-24.1</v>
+      </c>
+      <c r="H32" s="9">
+        <v>-24.1</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>0.25</v>
       </c>
@@ -1761,8 +2153,20 @@
       <c r="D33" s="9">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F33" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G33" s="9">
+        <v>10.9</v>
+      </c>
+      <c r="H33" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="I33" s="9">
+        <v>5.3000000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>0.5</v>
       </c>
@@ -1775,8 +2179,20 @@
       <c r="D34" s="9">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F34" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="9">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H34" s="9">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>0.75</v>
       </c>
@@ -1789,8 +2205,20 @@
       <c r="D35" s="9">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F35" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G35" s="9">
+        <v>25</v>
+      </c>
+      <c r="H35" s="9">
+        <v>25.1</v>
+      </c>
+      <c r="I35" s="9">
+        <v>-0.10000000000000139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>13</v>
       </c>
@@ -1803,8 +2231,20 @@
       <c r="D36" s="10">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="10">
+        <v>39</v>
+      </c>
+      <c r="H36" s="10">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0.29999999999999721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>20</v>
       </c>
@@ -1817,8 +2257,20 @@
       <c r="D37" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>9</v>
       </c>
@@ -1831,8 +2283,20 @@
       <c r="D38" s="11">
         <v>32036</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="11">
+        <v>178714</v>
+      </c>
+      <c r="H38" s="11">
+        <v>9732</v>
+      </c>
+      <c r="I38" s="11">
+        <v>168982</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>10</v>
       </c>
@@ -1845,8 +2309,20 @@
       <c r="D39" s="9">
         <v>2.7614294311193541</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1016.4353604082499</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1016.245478832717</v>
+      </c>
+      <c r="I39" s="9">
+        <v>0.18988157553337709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>11</v>
       </c>
@@ -1859,8 +2335,20 @@
       <c r="D40" s="9">
         <v>-0.53502858847698231</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="9">
+        <v>6.3057189807992362</v>
+      </c>
+      <c r="H40" s="9">
+        <v>7.2030278509687307</v>
+      </c>
+      <c r="I40" s="9">
+        <v>-0.89730887016949445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>12</v>
       </c>
@@ -1873,8 +2361,20 @@
       <c r="D41" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="9">
+        <v>989.9</v>
+      </c>
+      <c r="H41" s="9">
+        <v>989.9</v>
+      </c>
+      <c r="I41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>0.25</v>
       </c>
@@ -1887,8 +2387,20 @@
       <c r="D42" s="9">
         <v>3.399999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F42" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1012.6</v>
+      </c>
+      <c r="H42" s="9">
+        <v>1012.1</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>0.5</v>
       </c>
@@ -1901,8 +2413,20 @@
       <c r="D43" s="9">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F43" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1016.1</v>
+      </c>
+      <c r="H43" s="9">
+        <v>1015.8</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0.30000000000006821</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>0.75</v>
       </c>
@@ -1915,8 +2439,20 @@
       <c r="D44" s="9">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F44" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1020.1</v>
+      </c>
+      <c r="H44" s="9">
+        <v>1020.5</v>
+      </c>
+      <c r="I44" s="9">
+        <v>-0.39999999999997732</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>13</v>
       </c>
@@ -1929,8 +2465,20 @@
       <c r="D45" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1040</v>
+      </c>
+      <c r="H45" s="10">
+        <v>1040</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>19</v>
       </c>
@@ -1943,8 +2491,20 @@
       <c r="D46" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>9</v>
       </c>
@@ -1957,8 +2517,20 @@
       <c r="D47" s="11">
         <v>32036</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="11">
+        <v>178714</v>
+      </c>
+      <c r="H47" s="11">
+        <v>9732</v>
+      </c>
+      <c r="I47" s="11">
+        <v>168982</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>10</v>
       </c>
@@ -1971,8 +2543,20 @@
       <c r="D48" s="9">
         <v>0.60203378470782098</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1.8689213380037379</v>
+      </c>
+      <c r="H48" s="9">
+        <v>5.9311369708179207</v>
+      </c>
+      <c r="I48" s="9">
+        <v>-4.0622156328141834</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>11</v>
       </c>
@@ -1985,8 +2569,20 @@
       <c r="D49" s="9">
         <v>-0.57213771894734577</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="9">
+        <v>6.4817964995119581</v>
+      </c>
+      <c r="H49" s="9">
+        <v>19.009498596690729</v>
+      </c>
+      <c r="I49" s="9">
+        <v>-12.52770209717877</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>12</v>
       </c>
@@ -1999,8 +2595,20 @@
       <c r="D50" s="9">
         <v>-2.1999999999999962</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>0.25</v>
       </c>
@@ -2013,8 +2621,20 @@
       <c r="D51" s="9">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F51" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>0.5</v>
       </c>
@@ -2027,8 +2647,20 @@
       <c r="D52" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F52" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>0.75</v>
       </c>
@@ -2041,8 +2673,20 @@
       <c r="D53" s="9">
         <v>-0.40000000000000568</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F53" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="H53" s="9">
+        <v>3.5539999999999998</v>
+      </c>
+      <c r="I53" s="9">
+        <v>-3.3220000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>13</v>
       </c>
@@ -2055,8 +2699,20 @@
       <c r="D54" s="10">
         <v>3.7000000000000028</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="10">
+        <v>179.173</v>
+      </c>
+      <c r="H54" s="10">
+        <v>179.173</v>
+      </c>
+      <c r="I54" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>18</v>
       </c>
@@ -2069,8 +2725,20 @@
       <c r="D55" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F55" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>9</v>
       </c>
@@ -2083,8 +2751,20 @@
       <c r="D56" s="11">
         <v>32036</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="11">
+        <v>178714</v>
+      </c>
+      <c r="H56" s="11">
+        <v>9732</v>
+      </c>
+      <c r="I56" s="11">
+        <v>168982</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>10</v>
       </c>
@@ -2097,8 +2777,20 @@
       <c r="D57" s="9">
         <v>-3.3506370467809972</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="9">
+        <v>42.963176359994172</v>
+      </c>
+      <c r="H57" s="9">
+        <v>52.099023838882047</v>
+      </c>
+      <c r="I57" s="9">
+        <v>-9.1358474788878752</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>11</v>
       </c>
@@ -2111,8 +2803,20 @@
       <c r="D58" s="9">
         <v>-3.883699395256405</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="9">
+        <v>29.451617274450818</v>
+      </c>
+      <c r="H58" s="9">
+        <v>30.81784890267701</v>
+      </c>
+      <c r="I58" s="9">
+        <v>-1.366231628226185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>12</v>
       </c>
@@ -2125,8 +2829,20 @@
       <c r="D59" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>0.25</v>
       </c>
@@ -2139,8 +2855,20 @@
       <c r="D60" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F60" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G60" s="9">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H60" s="9">
+        <v>25.7</v>
+      </c>
+      <c r="I60" s="9">
+        <v>-8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>0.5</v>
       </c>
@@ -2153,8 +2881,20 @@
       <c r="D61" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F61" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G61" s="9">
+        <v>40.1</v>
+      </c>
+      <c r="H61" s="9">
+        <v>52.1</v>
+      </c>
+      <c r="I61" s="9">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>0.75</v>
       </c>
@@ -2167,8 +2907,20 @@
       <c r="D62" s="9">
         <v>0.42700000000000049</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F62" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="G62" s="9">
+        <v>65.8</v>
+      </c>
+      <c r="H62" s="9">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="I62" s="9">
+        <v>-11.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>13</v>
       </c>
@@ -2181,8 +2933,20 @@
       <c r="D63" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="10">
+        <v>100</v>
+      </c>
+      <c r="H63" s="10">
+        <v>100</v>
+      </c>
+      <c r="I63" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>17</v>
       </c>
@@ -2195,8 +2959,12 @@
       <c r="D64" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>9</v>
       </c>
@@ -2210,7 +2978,7 @@
         <v>32036</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>10</v>
       </c>
@@ -2224,7 +2992,7 @@
         <v>-4.1017614046084674</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>11</v>
       </c>
@@ -2238,7 +3006,7 @@
         <v>-5.0567424638354499</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>12</v>
       </c>
@@ -2252,7 +3020,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>0.25</v>
       </c>
@@ -2266,7 +3034,7 @@
         <v>3.5999999999999979</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>0.5</v>
       </c>
@@ -2280,7 +3048,7 @@
         <v>-5.7000000000000028</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>0.75</v>
       </c>
@@ -2294,7 +3062,7 @@
         <v>-3.600000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
         <v>13</v>
       </c>
@@ -2308,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>16</v>
       </c>
@@ -2321,8 +3089,12 @@
       <c r="D73" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>9</v>
       </c>
@@ -2336,7 +3108,7 @@
         <v>32036</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>10</v>
       </c>
@@ -2350,7 +3122,7 @@
         <v>-4.5198146532452519</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>11</v>
       </c>
@@ -2364,7 +3136,7 @@
         <v>-4.1084348161385513</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>12</v>
       </c>
@@ -2378,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>0.25</v>
       </c>
@@ -2392,7 +3164,7 @@
         <v>0.19999999999999929</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>0.5</v>
       </c>
@@ -2406,7 +3178,7 @@
         <v>-3.5999999999999979</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>0.75</v>
       </c>
@@ -2420,7 +3192,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>13</v>
       </c>
@@ -2434,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>15</v>
       </c>
@@ -2447,8 +3219,12 @@
       <c r="D82" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>9</v>
       </c>
@@ -2462,7 +3238,7 @@
         <v>32036</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>10</v>
       </c>
@@ -2476,7 +3252,7 @@
         <v>0.27821270715925911</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>11</v>
       </c>
@@ -2490,7 +3266,7 @@
         <v>0.1205459797198767</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>12</v>
       </c>
@@ -2504,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>0.25</v>
       </c>
@@ -2518,7 +3294,7 @@
         <v>2.2999999999999989</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>0.5</v>
       </c>
@@ -2532,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>0.75</v>
       </c>
@@ -2546,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>13</v>
       </c>
@@ -2597,7 +3373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/Data1.xlsx
+++ b/Data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sander/Documents/GitHub/pythonProject1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F41B848-D29A-2A4C-BDD1-D8C2B06D4FDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A75790-24D8-FE44-BA4E-866B010E39CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18520" windowHeight="16280" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9340" yWindow="500" windowWidth="18640" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="55">
   <si>
     <t>distance</t>
   </si>
@@ -101,16 +101,107 @@
   </si>
   <si>
     <t>Cloudcover</t>
+  </si>
+  <si>
+    <t>Flight by RQF correlations</t>
+  </si>
+  <si>
+    <t>Highly</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Least</t>
+  </si>
+  <si>
+    <t>Refund Probability</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>GLM</t>
+  </si>
+  <si>
+    <t>GLM_nonlinear</t>
+  </si>
+  <si>
+    <t>Refund correlation ranked flights</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>Daypart</t>
+  </si>
+  <si>
+    <t>Weekday</t>
+  </si>
+  <si>
+    <t>Visbility</t>
+  </si>
+  <si>
+    <t>Airpressure</t>
+  </si>
+  <si>
+    <t>Cloud Cover</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>YV</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>QX</t>
+  </si>
+  <si>
+    <t>6:00 pm - 00:00 am</t>
+  </si>
+  <si>
+    <t>12:00 - 6:00 pm</t>
+  </si>
+  <si>
+    <t>00:00 am - 6:00 am</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +217,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -161,11 +259,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -198,8 +350,54 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1216,12 +1414,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:W5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="26.1640625" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="20" max="23" width="11.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="L1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.13178000000000001</v>
+      </c>
+      <c r="C3" s="13">
+        <v>333.6</v>
+      </c>
+      <c r="D3" s="13">
+        <v>333.6</v>
+      </c>
+      <c r="E3" s="12">
+        <v>9.0249999999999997E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>269.43</v>
+      </c>
+      <c r="G3" s="13">
+        <v>269.43</v>
+      </c>
+      <c r="H3" s="12">
+        <v>8.9389999999999997E-2</v>
+      </c>
+      <c r="I3" s="13">
+        <v>268.11</v>
+      </c>
+      <c r="J3" s="13">
+        <v>268.11</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>1747</v>
+      </c>
+      <c r="R3" s="28">
+        <v>33.4</v>
+      </c>
+      <c r="S3" s="28">
+        <v>13.7</v>
+      </c>
+      <c r="T3" s="28">
+        <v>28.5</v>
+      </c>
+      <c r="U3" s="28">
+        <v>1024.7</v>
+      </c>
+      <c r="V3" s="28">
+        <v>5.55</v>
+      </c>
+      <c r="W3" s="28">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1.968E-2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>160.4</v>
+      </c>
+      <c r="D4" s="13">
+        <v>160.4</v>
+      </c>
+      <c r="E4" s="12">
+        <v>2.5190000000000001E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>168.92</v>
+      </c>
+      <c r="G4" s="13">
+        <v>168.92</v>
+      </c>
+      <c r="H4" s="12">
+        <v>2.606E-2</v>
+      </c>
+      <c r="I4" s="13">
+        <v>170.26</v>
+      </c>
+      <c r="J4" s="13">
+        <v>170.26</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>775</v>
+      </c>
+      <c r="R4" s="27">
+        <v>775</v>
+      </c>
+      <c r="S4" s="27">
+        <v>16</v>
+      </c>
+      <c r="T4" s="27">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="U4" s="27">
+        <v>1016.1</v>
+      </c>
+      <c r="V4" s="27">
+        <v>0</v>
+      </c>
+      <c r="W4" s="27">
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="14">
+        <v>4.326E-2</v>
+      </c>
+      <c r="C5" s="15">
+        <v>196.83</v>
+      </c>
+      <c r="D5" s="15">
+        <v>196.83</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1.375E-2</v>
+      </c>
+      <c r="F5" s="15">
+        <v>151.52000000000001</v>
+      </c>
+      <c r="G5" s="15">
+        <v>151.52000000000001</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I5" s="15">
+        <v>156.27000000000001</v>
+      </c>
+      <c r="J5" s="15">
+        <v>156.27000000000001</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>236</v>
+      </c>
+      <c r="R5" s="26">
+        <v>236</v>
+      </c>
+      <c r="S5" s="26">
+        <v>16</v>
+      </c>
+      <c r="T5" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="U5" s="26">
+        <v>1024.7</v>
+      </c>
+      <c r="V5" s="26">
+        <v>0</v>
+      </c>
+      <c r="W5" s="26">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1296,7 +1813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
